--- a/Code/Results/Cases/Case_4_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.20085655133474</v>
+        <v>14.21164676609349</v>
       </c>
       <c r="C2">
-        <v>6.86208734371851</v>
+        <v>6.341266035141048</v>
       </c>
       <c r="D2">
-        <v>12.10653549660582</v>
+        <v>15.24101696135474</v>
       </c>
       <c r="E2">
-        <v>13.10328881291676</v>
+        <v>16.68608037569345</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>67.72468258912755</v>
+        <v>66.05293979238395</v>
       </c>
       <c r="H2">
-        <v>19.18235784147783</v>
+        <v>23.1343022577991</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.940835913497703</v>
+        <v>9.552488925002425</v>
       </c>
       <c r="K2">
-        <v>11.41656506362628</v>
+        <v>13.80292406624594</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.37342727828981</v>
+        <v>14.100422706785</v>
       </c>
       <c r="C3">
-        <v>6.364428446190268</v>
+        <v>6.288945967409167</v>
       </c>
       <c r="D3">
-        <v>11.61554828289153</v>
+        <v>15.19053247580511</v>
       </c>
       <c r="E3">
-        <v>12.58273345014109</v>
+        <v>16.63663018733889</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>64.98890406524215</v>
+        <v>65.32148462783147</v>
       </c>
       <c r="H3">
-        <v>18.69911870260025</v>
+        <v>23.0462838944038</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.862629144302311</v>
+        <v>9.564298870808141</v>
       </c>
       <c r="K3">
-        <v>10.60196382624412</v>
+        <v>13.75590965787707</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.87273832618758</v>
+        <v>14.03682153698649</v>
       </c>
       <c r="C4">
-        <v>6.044121302756138</v>
+        <v>6.259787509132004</v>
       </c>
       <c r="D4">
-        <v>11.31390953804807</v>
+        <v>15.1630372322558</v>
       </c>
       <c r="E4">
-        <v>12.26364481823119</v>
+        <v>16.61012458565988</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>63.29437993610315</v>
+        <v>64.87748865673913</v>
       </c>
       <c r="H4">
-        <v>18.40625168732756</v>
+        <v>22.99470735299117</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.817943037466303</v>
+        <v>9.573047574531794</v>
       </c>
       <c r="K4">
-        <v>10.10077116817009</v>
+        <v>13.73157737830806</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.66544554458459</v>
+        <v>14.01211211869767</v>
       </c>
       <c r="C5">
-        <v>5.909812821492564</v>
+        <v>6.248666377102639</v>
       </c>
       <c r="D5">
-        <v>11.1910796532566</v>
+        <v>15.15272020066381</v>
       </c>
       <c r="E5">
-        <v>12.13388457535086</v>
+        <v>16.60029938963968</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>62.60070537745251</v>
+        <v>64.69798885819475</v>
       </c>
       <c r="H5">
-        <v>18.28791153514763</v>
+        <v>22.97431755979775</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.800554708136888</v>
+        <v>9.57698905300424</v>
       </c>
       <c r="K5">
-        <v>9.946627784818645</v>
+        <v>13.72281079356689</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.63083428160419</v>
+        <v>14.00808293188171</v>
       </c>
       <c r="C6">
-        <v>5.887280584898608</v>
+        <v>6.246866104183621</v>
       </c>
       <c r="D6">
-        <v>11.17069356500594</v>
+        <v>15.15106084664631</v>
       </c>
       <c r="E6">
-        <v>12.11235871141084</v>
+        <v>16.59872703393698</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>62.48534994449584</v>
+        <v>64.66827370666796</v>
       </c>
       <c r="H6">
-        <v>18.26832321826711</v>
+        <v>22.97096999511149</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.797716524875514</v>
+        <v>9.577666253389296</v>
       </c>
       <c r="K6">
-        <v>9.920953904327652</v>
+        <v>13.72142473003165</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.86995561728846</v>
+        <v>14.03648336724085</v>
       </c>
       <c r="C7">
-        <v>6.042325373852439</v>
+        <v>6.259634424924284</v>
       </c>
       <c r="D7">
-        <v>11.31225245528773</v>
+        <v>15.16289449149058</v>
       </c>
       <c r="E7">
-        <v>12.2618935345504</v>
+        <v>16.6099881202681</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>63.28503669980899</v>
+        <v>64.87506187273789</v>
       </c>
       <c r="H7">
-        <v>18.40465158368538</v>
+        <v>22.99442981656161</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.817705227654638</v>
+        <v>9.573099207350257</v>
       </c>
       <c r="K7">
-        <v>10.09869773627634</v>
+        <v>13.7314544864765</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.89604942548451</v>
+        <v>14.17234130001102</v>
       </c>
       <c r="C8">
-        <v>6.693508638886948</v>
+        <v>6.322620169887341</v>
       </c>
       <c r="D8">
-        <v>11.93735219798052</v>
+        <v>15.22288735667469</v>
       </c>
       <c r="E8">
-        <v>12.92376600760955</v>
+        <v>16.66823344719125</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>66.78475309856279</v>
+        <v>65.79975904277707</v>
       </c>
       <c r="H8">
-        <v>19.01496048228598</v>
+        <v>23.10344629127432</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.913168472341767</v>
+        <v>9.556250109541944</v>
       </c>
       <c r="K8">
-        <v>11.14089075141304</v>
+        <v>13.78577801919283</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.09593343942026</v>
+        <v>14.47458389001394</v>
       </c>
       <c r="C9">
-        <v>7.857078427039051</v>
+        <v>6.468908572508723</v>
       </c>
       <c r="D9">
-        <v>13.15709895744332</v>
+        <v>15.36798021528909</v>
       </c>
       <c r="E9">
-        <v>14.22109886676159</v>
+        <v>16.81273833527309</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.51169876274641</v>
+        <v>67.64723108459357</v>
       </c>
       <c r="H9">
-        <v>20.24103534712748</v>
+        <v>23.33643943840462</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.127583663480372</v>
+        <v>9.535097834100807</v>
       </c>
       <c r="K9">
-        <v>13.03777485845469</v>
+        <v>13.92783024543309</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.59636613418922</v>
+        <v>14.71646376512406</v>
       </c>
       <c r="C10">
-        <v>8.648251624899059</v>
+        <v>6.589133289976676</v>
       </c>
       <c r="D10">
-        <v>14.04505301636474</v>
+        <v>15.49078940116622</v>
       </c>
       <c r="E10">
-        <v>15.16931626796784</v>
+        <v>16.9368779716728</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.35479097342706</v>
+        <v>69.01657819173062</v>
       </c>
       <c r="H10">
-        <v>21.15898873190499</v>
+        <v>23.51881074308225</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.302854405338411</v>
+        <v>9.526813702503878</v>
       </c>
       <c r="K10">
-        <v>14.31916791148897</v>
+        <v>14.05313570892995</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.25292611516787</v>
+        <v>14.83033982968378</v>
       </c>
       <c r="C11">
-        <v>8.995694411247781</v>
+        <v>6.646324970294041</v>
       </c>
       <c r="D11">
-        <v>14.44683036233617</v>
+        <v>15.55004710320138</v>
       </c>
       <c r="E11">
-        <v>15.59923446896037</v>
+        <v>16.99712922286224</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>80.53576767989821</v>
+        <v>69.64025075322645</v>
       </c>
       <c r="H11">
-        <v>21.58050753319601</v>
+        <v>23.60408266365114</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.386734428339852</v>
+        <v>9.524621277885585</v>
       </c>
       <c r="K11">
-        <v>14.87955638626209</v>
+        <v>14.11450419935777</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.49798527947448</v>
+        <v>14.87397359244073</v>
       </c>
       <c r="C12">
-        <v>9.125595539036738</v>
+        <v>6.668317655840028</v>
       </c>
       <c r="D12">
-        <v>14.59866753724651</v>
+        <v>15.57296161555317</v>
       </c>
       <c r="E12">
-        <v>15.76183669863408</v>
+        <v>17.02047615771623</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>81.35857944621975</v>
+        <v>69.87636920209167</v>
       </c>
       <c r="H12">
-        <v>21.74073392588798</v>
+        <v>23.63669359982641</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.419122720738669</v>
+        <v>9.524017594961892</v>
       </c>
       <c r="K12">
-        <v>15.08869061793096</v>
+        <v>14.13835329965942</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.44536301149618</v>
+        <v>14.8645542048175</v>
       </c>
       <c r="C13">
-        <v>9.097691048980195</v>
+        <v>6.663566610767331</v>
       </c>
       <c r="D13">
-        <v>14.56597996740205</v>
+        <v>15.56800565526146</v>
       </c>
       <c r="E13">
-        <v>15.7268257493923</v>
+        <v>17.01542456379932</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>81.18150567273835</v>
+        <v>69.82552175571007</v>
       </c>
       <c r="H13">
-        <v>21.70619842833957</v>
+        <v>23.62965620057506</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.412119033682059</v>
+        <v>9.524137535762694</v>
       </c>
       <c r="K13">
-        <v>15.04378364137715</v>
+        <v>14.13319012562071</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.27315767832297</v>
+        <v>14.83391959683646</v>
       </c>
       <c r="C14">
-        <v>9.006414117711039</v>
+        <v>6.648127739951668</v>
       </c>
       <c r="D14">
-        <v>14.45932812683777</v>
+        <v>15.55192285196766</v>
       </c>
       <c r="E14">
-        <v>15.61261566805046</v>
+        <v>16.99903941947969</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>80.60352139020198</v>
+        <v>69.65967833199711</v>
       </c>
       <c r="H14">
-        <v>21.59367698307489</v>
+        <v>23.6067592356074</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.389386332440897</v>
+        <v>9.524567073136145</v>
       </c>
       <c r="K14">
-        <v>14.89682255192495</v>
+        <v>14.11645415583695</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.16721805436022</v>
+        <v>14.81522036846761</v>
       </c>
       <c r="C15">
-        <v>8.950291092264997</v>
+        <v>6.638713940564337</v>
       </c>
       <c r="D15">
-        <v>14.39396140843026</v>
+        <v>15.54213312531094</v>
       </c>
       <c r="E15">
-        <v>15.54263363983054</v>
+        <v>16.98907182651745</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>80.24909450201019</v>
+        <v>69.55808283253157</v>
       </c>
       <c r="H15">
-        <v>21.52483493368466</v>
+        <v>23.59277553474547</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.375544178512742</v>
+        <v>9.524859675315552</v>
       </c>
       <c r="K15">
-        <v>14.80640971633427</v>
+        <v>14.10628180926971</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.55294952762648</v>
+        <v>14.70909552714123</v>
       </c>
       <c r="C16">
-        <v>8.625304917090954</v>
+        <v>6.585443951545342</v>
       </c>
       <c r="D16">
-        <v>14.01875207068093</v>
+        <v>15.48698394000946</v>
       </c>
       <c r="E16">
-        <v>15.1411911749166</v>
+        <v>16.93301542500361</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.21181901886254</v>
+        <v>68.97582103951602</v>
       </c>
       <c r="H16">
-        <v>21.13152359587297</v>
+        <v>23.51328350612608</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.29745842879845</v>
+        <v>9.526988690663348</v>
       </c>
       <c r="K16">
-        <v>14.28210578155859</v>
+        <v>14.04921151200572</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.16957342386705</v>
+        <v>14.64494671172447</v>
       </c>
       <c r="C17">
-        <v>8.422828021578601</v>
+        <v>6.553388092521442</v>
       </c>
       <c r="D17">
-        <v>13.78801325952173</v>
+        <v>15.45401146460023</v>
       </c>
       <c r="E17">
-        <v>14.89454749984723</v>
+        <v>16.89958612900226</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.95637064656296</v>
+        <v>68.61869950930303</v>
       </c>
       <c r="H17">
-        <v>20.89126928956623</v>
+        <v>23.46510114564461</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.25063648178574</v>
+        <v>9.528698397313736</v>
       </c>
       <c r="K17">
-        <v>13.95480630350414</v>
+        <v>14.01530687447538</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.9466073301568</v>
+        <v>14.60841433929092</v>
       </c>
       <c r="C18">
-        <v>8.305187090438888</v>
+        <v>6.535187302737865</v>
       </c>
       <c r="D18">
-        <v>13.65509328821784</v>
+        <v>15.43536658068385</v>
       </c>
       <c r="E18">
-        <v>14.75254747434877</v>
+        <v>16.88071502809677</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.2321675185664</v>
+        <v>68.41337274527399</v>
       </c>
       <c r="H18">
-        <v>20.75344816824137</v>
+        <v>23.43760613097862</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.224094275218187</v>
+        <v>9.529830132956453</v>
       </c>
       <c r="K18">
-        <v>13.76442136233016</v>
+        <v>13.99621795149182</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.87068774206027</v>
+        <v>14.59610892456612</v>
       </c>
       <c r="C19">
-        <v>8.265149380482601</v>
+        <v>6.529066239645311</v>
       </c>
       <c r="D19">
-        <v>13.61005404773965</v>
+        <v>15.42910908029789</v>
       </c>
       <c r="E19">
-        <v>14.70444547780402</v>
+        <v>16.87438719758145</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.98660271374824</v>
+        <v>68.34387130851275</v>
       </c>
       <c r="H19">
-        <v>20.70684647099313</v>
+        <v>23.42833462215253</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.215173489013616</v>
+        <v>9.530238801425977</v>
       </c>
       <c r="K19">
-        <v>13.69958951835103</v>
+        <v>13.98982607256329</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.21063771312643</v>
+        <v>14.65173805275972</v>
       </c>
       <c r="C20">
-        <v>8.444503462567639</v>
+        <v>6.556776149011541</v>
       </c>
       <c r="D20">
-        <v>13.81259710335288</v>
+        <v>15.45748841058724</v>
       </c>
       <c r="E20">
-        <v>14.92081738355919</v>
+        <v>16.90310792043622</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.09023252863807</v>
+        <v>68.65670858559608</v>
       </c>
       <c r="H20">
-        <v>20.91680659446638</v>
+        <v>23.47020774154234</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.255580356645078</v>
+        <v>9.52850104215214</v>
       </c>
       <c r="K20">
-        <v>13.98986728733711</v>
+        <v>14.01887355180707</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.32383385065638</v>
+        <v>14.84290417907446</v>
       </c>
       <c r="C21">
-        <v>9.033268567180606</v>
+        <v>6.652653602852472</v>
       </c>
       <c r="D21">
-        <v>14.49066251656242</v>
+        <v>15.55663397790641</v>
       </c>
       <c r="E21">
-        <v>15.6461670982944</v>
+        <v>17.00383782299314</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>80.77337125479411</v>
+        <v>69.70839326983395</v>
       </c>
       <c r="H21">
-        <v>21.62671035782321</v>
+        <v>23.61347603365213</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.396046272803975</v>
+        <v>9.524434760491379</v>
       </c>
       <c r="K21">
-        <v>14.94007056611261</v>
+        <v>14.12135350262226</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.03068406959705</v>
+        <v>14.97080323831027</v>
       </c>
       <c r="C22">
-        <v>9.40840732744997</v>
+        <v>6.71725861730508</v>
       </c>
       <c r="D22">
-        <v>14.93205079899976</v>
+        <v>15.62419298485102</v>
       </c>
       <c r="E22">
-        <v>16.11909614560264</v>
+        <v>17.07275989584109</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.16274210128658</v>
+        <v>70.3953491379275</v>
       </c>
       <c r="H22">
-        <v>22.09424519976639</v>
+        <v>23.70897126811881</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.491507318451865</v>
+        <v>9.523097564355037</v>
       </c>
       <c r="K22">
-        <v>15.54326371005731</v>
+        <v>14.19187766416808</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65525481683298</v>
+        <v>14.90228403805128</v>
       </c>
       <c r="C23">
-        <v>9.209026946445434</v>
+        <v>6.682608017186345</v>
       </c>
       <c r="D23">
-        <v>14.69662606832538</v>
+        <v>15.5878871974626</v>
       </c>
       <c r="E23">
-        <v>15.86677703074997</v>
+        <v>17.03569654184358</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>81.88903988840438</v>
+        <v>70.02879525715848</v>
       </c>
       <c r="H23">
-        <v>21.84436627252605</v>
+        <v>23.65783744104265</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.440212530175597</v>
+        <v>9.523690490064643</v>
       </c>
       <c r="K23">
-        <v>15.22289896717756</v>
+        <v>14.15391913971782</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.19208052847153</v>
+        <v>14.64866660149077</v>
       </c>
       <c r="C24">
-        <v>8.434707849394018</v>
+        <v>6.5552436949306</v>
       </c>
       <c r="D24">
-        <v>13.80148357327606</v>
+        <v>15.45591551230246</v>
       </c>
       <c r="E24">
-        <v>14.90894139620926</v>
+        <v>16.90151463412931</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.02972114443106</v>
+        <v>68.63952470989412</v>
       </c>
       <c r="H24">
-        <v>20.90526023386342</v>
+        <v>23.46789840793717</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.25334406062176</v>
+        <v>9.528589802916589</v>
       </c>
       <c r="K24">
-        <v>13.97402313156175</v>
+        <v>14.01725979939711</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.51930973696138</v>
+        <v>14.3891848656104</v>
       </c>
       <c r="C25">
-        <v>7.55391081300101</v>
+        <v>6.427007395448777</v>
       </c>
       <c r="D25">
-        <v>12.82833559072276</v>
+        <v>15.32584049440807</v>
       </c>
       <c r="E25">
-        <v>13.87077308526769</v>
+        <v>16.77045025299481</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>71.70859636984873</v>
+        <v>67.14469007587725</v>
       </c>
       <c r="H25">
-        <v>19.90633910894669</v>
+        <v>23.27140304451082</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.066552389529825</v>
+        <v>9.539546133317675</v>
       </c>
       <c r="K25">
-        <v>12.54490281033421</v>
+        <v>13.88566636673001</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.21164676609349</v>
+        <v>13.20085655133469</v>
       </c>
       <c r="C2">
-        <v>6.341266035141048</v>
+        <v>6.862087343718429</v>
       </c>
       <c r="D2">
-        <v>15.24101696135474</v>
+        <v>12.10653549660577</v>
       </c>
       <c r="E2">
-        <v>16.68608037569345</v>
+        <v>13.10328881291672</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>66.05293979238395</v>
+        <v>67.72468258912735</v>
       </c>
       <c r="H2">
-        <v>23.1343022577991</v>
+        <v>19.18235784147779</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.552488925002425</v>
+        <v>5.940835913497711</v>
       </c>
       <c r="K2">
-        <v>13.80292406624594</v>
+        <v>11.41656506362624</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.100422706785</v>
+        <v>12.37342727828985</v>
       </c>
       <c r="C3">
-        <v>6.288945967409167</v>
+        <v>6.364428446190365</v>
       </c>
       <c r="D3">
-        <v>15.19053247580511</v>
+        <v>11.6155482828915</v>
       </c>
       <c r="E3">
-        <v>16.63663018733889</v>
+        <v>12.58273345014112</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>65.32148462783147</v>
+        <v>64.98890406524261</v>
       </c>
       <c r="H3">
-        <v>23.0462838944038</v>
+        <v>18.69911870260039</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.564298870808141</v>
+        <v>5.862629144302401</v>
       </c>
       <c r="K3">
-        <v>13.75590965787707</v>
+        <v>10.60196382624403</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03682153698649</v>
+        <v>11.87273832618755</v>
       </c>
       <c r="C4">
-        <v>6.259787509132004</v>
+        <v>6.044121302756139</v>
       </c>
       <c r="D4">
-        <v>15.1630372322558</v>
+        <v>11.31390953804806</v>
       </c>
       <c r="E4">
-        <v>16.61012458565988</v>
+        <v>12.26364481823119</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>64.87748865673913</v>
+        <v>63.2943799361029</v>
       </c>
       <c r="H4">
-        <v>22.99470735299117</v>
+        <v>18.40625168732751</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.573047574531794</v>
+        <v>5.817943037466345</v>
       </c>
       <c r="K4">
-        <v>13.73157737830806</v>
+        <v>10.10077116817005</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.01211211869767</v>
+        <v>11.66544554458458</v>
       </c>
       <c r="C5">
-        <v>6.248666377102639</v>
+        <v>5.90981282149253</v>
       </c>
       <c r="D5">
-        <v>15.15272020066381</v>
+        <v>11.19107965325651</v>
       </c>
       <c r="E5">
-        <v>16.60029938963968</v>
+        <v>12.13388457535091</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>64.69798885819475</v>
+        <v>62.60070537745244</v>
       </c>
       <c r="H5">
-        <v>22.97431755979775</v>
+        <v>18.2879115351476</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.57698905300424</v>
+        <v>5.800554708137006</v>
       </c>
       <c r="K5">
-        <v>13.72281079356689</v>
+        <v>9.94662778481865</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.00808293188171</v>
+        <v>11.63083428160421</v>
       </c>
       <c r="C6">
-        <v>6.246866104183621</v>
+        <v>5.887280584898656</v>
       </c>
       <c r="D6">
-        <v>15.15106084664631</v>
+        <v>11.17069356500582</v>
       </c>
       <c r="E6">
-        <v>16.59872703393698</v>
+        <v>12.1123587114109</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>64.66827370666796</v>
+        <v>62.48534994449607</v>
       </c>
       <c r="H6">
-        <v>22.97096999511149</v>
+        <v>18.26832321826713</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.577666253389296</v>
+        <v>5.797716524875654</v>
       </c>
       <c r="K6">
-        <v>13.72142473003165</v>
+        <v>9.920953904327643</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03648336724085</v>
+        <v>11.86995561728845</v>
       </c>
       <c r="C7">
-        <v>6.259634424924284</v>
+        <v>6.042325373852468</v>
       </c>
       <c r="D7">
-        <v>15.16289449149058</v>
+        <v>11.31225245528771</v>
       </c>
       <c r="E7">
-        <v>16.6099881202681</v>
+        <v>12.26189353455042</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>64.87506187273789</v>
+        <v>63.2850366998091</v>
       </c>
       <c r="H7">
-        <v>22.99442981656161</v>
+        <v>18.40465158368542</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.573099207350257</v>
+        <v>5.817705227654657</v>
       </c>
       <c r="K7">
-        <v>13.7314544864765</v>
+        <v>10.09869773627637</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.17234130001102</v>
+        <v>12.89604942548454</v>
       </c>
       <c r="C8">
-        <v>6.322620169887341</v>
+        <v>6.693508638886815</v>
       </c>
       <c r="D8">
-        <v>15.22288735667469</v>
+        <v>11.93735219798048</v>
       </c>
       <c r="E8">
-        <v>16.66823344719125</v>
+        <v>12.9237660076095</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>65.79975904277707</v>
+        <v>66.78475309856326</v>
       </c>
       <c r="H8">
-        <v>23.10344629127432</v>
+        <v>19.01496048228615</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.556250109541944</v>
+        <v>5.913168472341799</v>
       </c>
       <c r="K8">
-        <v>13.78577801919283</v>
+        <v>11.14089075141292</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.47458389001394</v>
+        <v>15.0959334394202</v>
       </c>
       <c r="C9">
-        <v>6.468908572508723</v>
+        <v>7.857078427039179</v>
       </c>
       <c r="D9">
-        <v>15.36798021528909</v>
+        <v>13.15709895744338</v>
       </c>
       <c r="E9">
-        <v>16.81273833527309</v>
+        <v>14.22109886676161</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>67.64723108459357</v>
+        <v>73.51169876274649</v>
       </c>
       <c r="H9">
-        <v>23.33643943840462</v>
+        <v>20.24103534712753</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.535097834100807</v>
+        <v>6.12758366348033</v>
       </c>
       <c r="K9">
-        <v>13.92783024543309</v>
+        <v>13.03777485845468</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.71646376512406</v>
+        <v>16.59636613418926</v>
       </c>
       <c r="C10">
-        <v>6.589133289976676</v>
+        <v>8.648251624899576</v>
       </c>
       <c r="D10">
-        <v>15.49078940116622</v>
+        <v>14.04505301636475</v>
       </c>
       <c r="E10">
-        <v>16.9368779716728</v>
+        <v>15.16931626796785</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>69.01657819173062</v>
+        <v>78.35479097342694</v>
       </c>
       <c r="H10">
-        <v>23.51881074308225</v>
+        <v>21.15898873190499</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.526813702503878</v>
+        <v>6.302854405338396</v>
       </c>
       <c r="K10">
-        <v>14.05313570892995</v>
+        <v>14.31916791148914</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.83033982968378</v>
+        <v>17.25292611516788</v>
       </c>
       <c r="C11">
-        <v>6.646324970294041</v>
+        <v>8.995694411247856</v>
       </c>
       <c r="D11">
-        <v>15.55004710320138</v>
+        <v>14.44683036233617</v>
       </c>
       <c r="E11">
-        <v>16.99712922286224</v>
+        <v>15.59923446896039</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>69.64025075322645</v>
+        <v>80.53576767989861</v>
       </c>
       <c r="H11">
-        <v>23.60408266365114</v>
+        <v>21.58050753319603</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.524621277885585</v>
+        <v>6.386734428339875</v>
       </c>
       <c r="K11">
-        <v>14.11450419935777</v>
+        <v>14.87955638626216</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.87397359244073</v>
+        <v>17.49798527947446</v>
       </c>
       <c r="C12">
-        <v>6.668317655840028</v>
+        <v>9.12559553903686</v>
       </c>
       <c r="D12">
-        <v>15.57296161555317</v>
+        <v>14.59866753724653</v>
       </c>
       <c r="E12">
-        <v>17.02047615771623</v>
+        <v>15.76183669863412</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>69.87636920209167</v>
+        <v>81.35857944621998</v>
       </c>
       <c r="H12">
-        <v>23.63669359982641</v>
+        <v>21.74073392588794</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.524017594961892</v>
+        <v>6.419122720738751</v>
       </c>
       <c r="K12">
-        <v>14.13835329965942</v>
+        <v>15.08869061793093</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.8645542048175</v>
+        <v>17.44536301149623</v>
       </c>
       <c r="C13">
-        <v>6.663566610767331</v>
+        <v>9.097691048979941</v>
       </c>
       <c r="D13">
-        <v>15.56800565526146</v>
+        <v>14.56597996740207</v>
       </c>
       <c r="E13">
-        <v>17.01542456379932</v>
+        <v>15.72682574939232</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>69.82552175571007</v>
+        <v>81.18150567273845</v>
       </c>
       <c r="H13">
-        <v>23.62965620057506</v>
+        <v>21.70619842833958</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.524137535762694</v>
+        <v>6.41211903368203</v>
       </c>
       <c r="K13">
-        <v>14.13319012562071</v>
+        <v>15.0437836413771</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.83391959683646</v>
+        <v>17.27315767832302</v>
       </c>
       <c r="C14">
-        <v>6.648127739951668</v>
+        <v>9.006414117711271</v>
       </c>
       <c r="D14">
-        <v>15.55192285196766</v>
+        <v>14.45932812683771</v>
       </c>
       <c r="E14">
-        <v>16.99903941947969</v>
+        <v>15.61261566805048</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>69.65967833199711</v>
+        <v>80.60352139020213</v>
       </c>
       <c r="H14">
-        <v>23.6067592356074</v>
+        <v>21.59367698307491</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.524567073136145</v>
+        <v>6.389386332441004</v>
       </c>
       <c r="K14">
-        <v>14.11645415583695</v>
+        <v>14.89682255192503</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.81522036846761</v>
+        <v>17.16721805436034</v>
       </c>
       <c r="C15">
-        <v>6.638713940564337</v>
+        <v>8.950291092264996</v>
       </c>
       <c r="D15">
-        <v>15.54213312531094</v>
+        <v>14.39396140843027</v>
       </c>
       <c r="E15">
-        <v>16.98907182651745</v>
+        <v>15.54263363983057</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>69.55808283253157</v>
+        <v>80.24909450201039</v>
       </c>
       <c r="H15">
-        <v>23.59277553474547</v>
+        <v>21.52483493368462</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.524859675315552</v>
+        <v>6.375544178512695</v>
       </c>
       <c r="K15">
-        <v>14.10628180926971</v>
+        <v>14.80640971633442</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.70909552714123</v>
+        <v>16.55294952762659</v>
       </c>
       <c r="C16">
-        <v>6.585443951545342</v>
+        <v>8.625304917090833</v>
       </c>
       <c r="D16">
-        <v>15.48698394000946</v>
+        <v>14.01875207068095</v>
       </c>
       <c r="E16">
-        <v>16.93301542500361</v>
+        <v>15.1411911749166</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>68.97582103951602</v>
+        <v>78.21181901886217</v>
       </c>
       <c r="H16">
-        <v>23.51328350612608</v>
+        <v>21.13152359587282</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.526988690663348</v>
+        <v>6.297458428798461</v>
       </c>
       <c r="K16">
-        <v>14.04921151200572</v>
+        <v>14.28210578155865</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.64494671172447</v>
+        <v>16.16957342386712</v>
       </c>
       <c r="C17">
-        <v>6.553388092521442</v>
+        <v>8.422828021578542</v>
       </c>
       <c r="D17">
-        <v>15.45401146460023</v>
+        <v>13.78801325952173</v>
       </c>
       <c r="E17">
-        <v>16.89958612900226</v>
+        <v>14.89454749984724</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>68.61869950930303</v>
+        <v>76.95637064656276</v>
       </c>
       <c r="H17">
-        <v>23.46510114564461</v>
+        <v>20.89126928956626</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.528698397313736</v>
+        <v>6.250636481785768</v>
       </c>
       <c r="K17">
-        <v>14.01530687447538</v>
+        <v>13.95480630350418</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.60841433929092</v>
+        <v>15.94660733015671</v>
       </c>
       <c r="C18">
-        <v>6.535187302737865</v>
+        <v>8.305187090438974</v>
       </c>
       <c r="D18">
-        <v>15.43536658068385</v>
+        <v>13.65509328821782</v>
       </c>
       <c r="E18">
-        <v>16.88071502809677</v>
+        <v>14.75254747434881</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>68.41337274527399</v>
+        <v>76.2321675185662</v>
       </c>
       <c r="H18">
-        <v>23.43760613097862</v>
+        <v>20.75344816824133</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.529830132956453</v>
+        <v>6.224094275218264</v>
       </c>
       <c r="K18">
-        <v>13.99621795149182</v>
+        <v>13.76442136233011</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59610892456612</v>
+        <v>15.87068774206026</v>
       </c>
       <c r="C19">
-        <v>6.529066239645311</v>
+        <v>8.265149380482455</v>
       </c>
       <c r="D19">
-        <v>15.42910908029789</v>
+        <v>13.61005404773959</v>
       </c>
       <c r="E19">
-        <v>16.87438719758145</v>
+        <v>14.70444547780398</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>68.34387130851275</v>
+        <v>75.98660271374835</v>
       </c>
       <c r="H19">
-        <v>23.42833462215253</v>
+        <v>20.70684647099321</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.530238801425977</v>
+        <v>6.215173489013641</v>
       </c>
       <c r="K19">
-        <v>13.98982607256329</v>
+        <v>13.69958951835102</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.65173805275972</v>
+        <v>16.21063771312639</v>
       </c>
       <c r="C20">
-        <v>6.556776149011541</v>
+        <v>8.444503462567535</v>
       </c>
       <c r="D20">
-        <v>15.45748841058724</v>
+        <v>13.81259710335287</v>
       </c>
       <c r="E20">
-        <v>16.90310792043622</v>
+        <v>14.92081738355919</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>68.65670858559608</v>
+        <v>77.09023252863808</v>
       </c>
       <c r="H20">
-        <v>23.47020774154234</v>
+        <v>20.91680659446645</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.52850104215214</v>
+        <v>6.255580356645107</v>
       </c>
       <c r="K20">
-        <v>14.01887355180707</v>
+        <v>13.98986728733706</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.84290417907446</v>
+        <v>17.32383385065637</v>
       </c>
       <c r="C21">
-        <v>6.652653602852472</v>
+        <v>9.033268567180365</v>
       </c>
       <c r="D21">
-        <v>15.55663397790641</v>
+        <v>14.49066251656237</v>
       </c>
       <c r="E21">
-        <v>17.00383782299314</v>
+        <v>15.64616709829441</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>69.70839326983395</v>
+        <v>80.77337125479399</v>
       </c>
       <c r="H21">
-        <v>23.61347603365213</v>
+        <v>21.62671035782317</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.524434760491379</v>
+        <v>6.396046272804064</v>
       </c>
       <c r="K21">
-        <v>14.12135350262226</v>
+        <v>14.94007056611258</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.97080323831027</v>
+        <v>18.030684069597</v>
       </c>
       <c r="C22">
-        <v>6.71725861730508</v>
+        <v>9.408407327449996</v>
       </c>
       <c r="D22">
-        <v>15.62419298485102</v>
+        <v>14.93205079899976</v>
       </c>
       <c r="E22">
-        <v>17.07275989584109</v>
+        <v>16.11909614560265</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>70.3953491379275</v>
+        <v>83.16274210128681</v>
       </c>
       <c r="H22">
-        <v>23.70897126811881</v>
+        <v>22.09424519976648</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.523097564355037</v>
+        <v>6.49150731845185</v>
       </c>
       <c r="K22">
-        <v>14.19187766416808</v>
+        <v>15.54326371005728</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.90228403805128</v>
+        <v>17.65525481683293</v>
       </c>
       <c r="C23">
-        <v>6.682608017186345</v>
+        <v>9.209026946445665</v>
       </c>
       <c r="D23">
-        <v>15.5878871974626</v>
+        <v>14.69662606832536</v>
       </c>
       <c r="E23">
-        <v>17.03569654184358</v>
+        <v>15.86677703074997</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>70.02879525715848</v>
+        <v>81.88903988840447</v>
       </c>
       <c r="H23">
-        <v>23.65783744104265</v>
+        <v>21.84436627252609</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.523690490064643</v>
+        <v>6.440212530175611</v>
       </c>
       <c r="K23">
-        <v>14.15391913971782</v>
+        <v>15.22289896717755</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.64866660149077</v>
+        <v>16.1920805284714</v>
       </c>
       <c r="C24">
-        <v>6.5552436949306</v>
+        <v>8.434707849394078</v>
       </c>
       <c r="D24">
-        <v>15.45591551230246</v>
+        <v>13.80148357327608</v>
       </c>
       <c r="E24">
-        <v>16.90151463412931</v>
+        <v>14.90894139620927</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>68.63952470989412</v>
+        <v>77.02972114443128</v>
       </c>
       <c r="H24">
-        <v>23.46789840793717</v>
+        <v>20.90526023386346</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.528589802916589</v>
+        <v>6.253344060621729</v>
       </c>
       <c r="K24">
-        <v>14.01725979939711</v>
+        <v>13.9740231315617</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.3891848656104</v>
+        <v>14.51930973696134</v>
       </c>
       <c r="C25">
-        <v>6.427007395448777</v>
+        <v>7.553910813001319</v>
       </c>
       <c r="D25">
-        <v>15.32584049440807</v>
+        <v>12.82833559072278</v>
       </c>
       <c r="E25">
-        <v>16.77045025299481</v>
+        <v>13.87077308526771</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>67.14469007587725</v>
+        <v>71.70859636984899</v>
       </c>
       <c r="H25">
-        <v>23.27140304451082</v>
+        <v>19.90633910894674</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.539546133317675</v>
+        <v>6.066552389529844</v>
       </c>
       <c r="K25">
-        <v>13.88566636673001</v>
+        <v>12.54490281033423</v>
       </c>
       <c r="L25">
         <v>0</v>
